--- a/SimOutput/1012.xlsx
+++ b/SimOutput/1012.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Study_CrossoverDesign\SimOutput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9746A8E7-24DD-451D-A4FB-9A399154FB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE8F001-140E-4E3E-A47C-7597FB735FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43B190A8-BB82-48E7-AC20-1DBB3B0DBA38}"/>
   </bookViews>
   <sheets>
-    <sheet name="ABBA_ind" sheetId="3" r:id="rId1"/>
+    <sheet name="ABBA_ind_P" sheetId="3" r:id="rId1"/>
+    <sheet name="ABBA_ind_R" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="18">
   <si>
     <t>seq_size=25</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF03BF1-B319-442D-9AEF-5BD12CB98235}">
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H28" workbookViewId="0">
       <selection activeCell="V33" sqref="V33:V36"/>
     </sheetView>
   </sheetViews>
@@ -3104,4 +3105,1781 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF051E54-B90E-4827-A388-EA62CF10B591}">
+  <dimension ref="A1:Z43"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="26.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="26.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" style="1" customWidth="1"/>
+    <col min="20" max="21" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="26.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.109375" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.99344842143949252</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.70999521787256448</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.29673184876375469</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.1981408886417573</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="O4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1.000282635109395</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.70051415631471259</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.30020849425758822</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0.19828482727810939</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0.99775533804200867</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0.70164145133330291</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0.30121164261968791</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0.20036894930150739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.993448</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.70999500000000004</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.296732</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.19814100000000001</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="O5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.997641</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.70278799999999997</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.296709</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.20023199999999999</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1.0000150000000001</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.70114100000000001</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.29900199999999999</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.19918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10.645659999999999</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7.0612999999999992</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.9282600000000034</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.5817599999999921</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="O9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="V9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
+        <v>10.63945249999999</v>
+      </c>
+      <c r="X9" s="3">
+        <v>7.0413750000000084</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>5.9386100000000033</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>5.5839349999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7.0612999999999992</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.0612999999999992</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3.7038999999999991</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.3574000000000019</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="O10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="V10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="3">
+        <v>7.0413750000000084</v>
+      </c>
+      <c r="X10" s="3">
+        <v>7.0413750000000084</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>3.6980250000000039</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>3.3433499999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.9282600000000034</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.7038999999999991</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.9282600000000034</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.2243599999999981</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="O11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="V11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="W11" s="3">
+        <v>5.9386100000000033</v>
+      </c>
+      <c r="X11" s="3">
+        <v>3.6980250000000039</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>5.9386100000000033</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>2.2405849999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5.5817599999999921</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3.3574000000000019</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.2243599999999981</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5.5817599999999921</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="O12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="V12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3">
+        <v>5.5839349999999994</v>
+      </c>
+      <c r="X12" s="3">
+        <v>3.3433499999999992</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>2.2405849999999998</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>5.5839349999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="8"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10.21667840000001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6.7881160000000076</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.7349847999999968</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5.3471936000000033</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="O15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="V15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="3">
+        <v>10.56015313749999</v>
+      </c>
+      <c r="X15" s="3">
+        <v>6.9921088875000041</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>5.8820243750000074</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>5.5371185374999961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6.7881160000000076</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6.7940719999999981</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3.565887199999997</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3.2466904000000012</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="O16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="V16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="W16" s="3">
+        <v>6.9921088875000041</v>
+      </c>
+      <c r="X16" s="3">
+        <v>7.0001064999999976</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>3.6697075249999949</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>3.3192500999999979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5.7349847999999968</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3.565887199999997</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5.7735984000000036</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.1508296000000011</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="O17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="V17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="W17" s="3">
+        <v>5.8820243750000074</v>
+      </c>
+      <c r="X17" s="3">
+        <v>3.6697075249999949</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>5.8930296750000011</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>2.201280025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5.3471936000000033</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3.2466904000000012</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.1508296000000011</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5.3502576000000008</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="O18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="V18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W18" s="3">
+        <v>5.5371185374999961</v>
+      </c>
+      <c r="X18" s="3">
+        <v>3.3192500999999979</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>2.201280025</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>5.5438820250000074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>10.645659999999999</v>
+      </c>
+      <c r="C22" s="3">
+        <v>7.0613000000000001</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5.9282599999999999</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5.5817600000000001</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
+        <v>10.640140000000001</v>
+      </c>
+      <c r="X22" s="3">
+        <v>7.0416800000000004</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>5.93445</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>5.5833199999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3">
+        <v>7.0613000000000001</v>
+      </c>
+      <c r="C23" s="3">
+        <v>7.0613000000000001</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3.7039</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3.3574000000000002</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="V23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="W23" s="3">
+        <v>7.0416800000000004</v>
+      </c>
+      <c r="X23" s="3">
+        <v>7.0416800000000004</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>3.6964000000000001</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>3.3452700000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5.9282599999999999</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3.7039</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5.9282599999999999</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2.2243599999999999</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="W24" s="3">
+        <v>5.93445</v>
+      </c>
+      <c r="X24" s="3">
+        <v>3.6964000000000001</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>5.93445</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>2.2380499999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5.5817600000000001</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3.3574000000000002</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2.2243599999999999</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5.5817600000000001</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="3">
+        <v>5.5833199999999996</v>
+      </c>
+      <c r="X25" s="3">
+        <v>3.3452700000000002</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>2.2380499999999999</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>5.5833199999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="S27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.7352941176470591</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-0.36764705882352949</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-0.36764705882353022</v>
+      </c>
+      <c r="E28" s="3">
+        <v>-0.36764705882352872</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="O28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="V28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0.73665232036273576</v>
+      </c>
+      <c r="X28" s="3">
+        <v>-0.36832616018136832</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>-0.36832616018136749</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>-0.36832616018136771</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3">
+        <v>-0.36764705882352949</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.43817421271856571</v>
+      </c>
+      <c r="D29" s="3">
+        <v>6.4465691484159315E-2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>7.8397609314589597E-2</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="O29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="V29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="W29" s="3">
+        <v>-0.36832616018136832</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0.43812003668110228</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>6.5413430103114539E-2</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>7.9756723945926741E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="3">
+        <v>-0.36764705882353033</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6.4465691484159315E-2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.43817421271856599</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.15425660412974421</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="O30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="V30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="W30" s="3">
+        <v>-0.36832616018136749</v>
+      </c>
+      <c r="X30" s="3">
+        <v>6.5413430103114539E-2</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0.43812003668110178</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0.15336212963259241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3">
+        <v>-0.36764705882352883</v>
+      </c>
+      <c r="C31" s="3">
+        <v>7.8397609314589597E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.15425660412974421</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.43817421271856538</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="O31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="V31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="W31" s="3">
+        <v>-0.3683261601813676</v>
+      </c>
+      <c r="X31" s="3">
+        <v>7.9756723945926741E-2</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0.15336212963259241</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0.43812003668110189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z33" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.72454189483475062</v>
+      </c>
+      <c r="C34" s="3">
+        <v>-0.36337024346561431</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-0.35895685788286807</v>
+      </c>
+      <c r="E34" s="3">
+        <v>-0.35588460364377023</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="O34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="V34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0.82825303600565159</v>
+      </c>
+      <c r="X34" s="3">
+        <v>-0.41659525470277797</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>-0.41328661975593828</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>-0.41517822692809908</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3">
+        <v>-0.36337024346561431</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.41515573714598758</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5.7254826768480441E-2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8.5771416664803979E-2</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="O35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="V35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-0.41659525470277797</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0.45817630346207178</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>8.7855759043885179E-2</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0.1018796434082993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3">
+        <v>-0.35895685788286807</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5.7254826768480441E-2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.42716020188709092</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.15417991134441519</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="O36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="V36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="W36" s="3">
+        <v>-0.41328661975593828</v>
+      </c>
+      <c r="X36" s="3">
+        <v>8.7855759043885179E-2</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>0.46834793199262298</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>0.17102739471455961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3">
+        <v>-0.35588460364377023</v>
+      </c>
+      <c r="C37" s="3">
+        <v>8.5771416664803979E-2</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.15417991134441519</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.40192694200288398</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="O37" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="V37" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W37" s="3">
+        <v>-0.41517822692809908</v>
+      </c>
+      <c r="X37" s="3">
+        <v>0.1018796434082993</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>0.17102739471455961</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>0.45767135172028739</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="X39" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z39" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.72454200000000002</v>
+      </c>
+      <c r="C40" s="3">
+        <v>-0.36337000000000003</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-0.35895700000000003</v>
+      </c>
+      <c r="E40" s="3">
+        <v>-0.35588500000000001</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="V40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0.73566200000000004</v>
+      </c>
+      <c r="X40" s="1">
+        <v>-0.36160900000000001</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>-0.38896199999999997</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>-0.37595099999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="3">
+        <v>-0.36337000000000003</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.41515600000000003</v>
+      </c>
+      <c r="D41" s="3">
+        <v>5.7255E-2</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8.5771E-2</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="V41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="W41" s="1">
+        <v>-0.36160900000000001</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0.43685200000000002</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>6.9065000000000001E-2</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>7.3473999999999998E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3">
+        <v>-0.35895700000000003</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5.7255E-2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.42715999999999998</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.15418000000000001</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="V42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="W42" s="1">
+        <v>-0.38896199999999997</v>
+      </c>
+      <c r="X42" s="1">
+        <v>6.9065000000000001E-2</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0.46993499999999999</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>0.16247900000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3">
+        <v>-0.35588500000000001</v>
+      </c>
+      <c r="C43" s="3">
+        <v>8.5771E-2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.15418000000000001</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.40192699999999998</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="V43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="W43" s="1">
+        <v>-0.37595099999999998</v>
+      </c>
+      <c r="X43" s="1">
+        <v>7.3473999999999998E-2</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0.16247900000000001</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>0.443768</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>